--- a/Min_Daily_Temps_Dakar.xlsx
+++ b/Min_Daily_Temps_Dakar.xlsx
@@ -8,15 +8,129 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Ths\THESE\Premiere Partie\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A9A711-8E9C-4F75-AAD4-765E562AA7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35720FB6-66E2-4A70-B612-4D87C571861C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Min_Temperatures" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="4">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="11"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="17"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="4">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization>
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>xl(%P2%, headers=True)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>xl(%P2%)["DAKAR"].describe()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>xl(%P2%)["MATAM"].describe()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>xl(%P2%)["ZIGUINCHOR"].describe()</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4776,6 +4890,9 @@
                 <c:pt idx="363">
                   <c:v>16</c:v>
                 </c:pt>
+                <c:pt idx="364">
+                  <c:v>16</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7018,6 +7135,9 @@
                   <c:v>18.7</c:v>
                 </c:pt>
                 <c:pt idx="363">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="364">
                   <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
@@ -7822,16 +7942,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7857,6 +7977,397 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
+  <a r="12" c="5">
+    <v t="s"/>
+    <v t="s">datetime</v>
+    <v t="s">DAKAR</v>
+    <v t="s">MATAM</v>
+    <v t="s">ZIGUINCHOR</v>
+    <v>0</v>
+    <v t="r">0</v>
+    <v>18</v>
+    <v>21</v>
+    <v>20.5</v>
+    <v>1</v>
+    <v t="r">1</v>
+    <v>19</v>
+    <v>17</v>
+    <v>20.5</v>
+    <v>2</v>
+    <v t="r">2</v>
+    <v>20</v>
+    <v>16</v>
+    <v>18.5</v>
+    <v>3</v>
+    <v t="r">3</v>
+    <v>20</v>
+    <v>16</v>
+    <v>16.600000000000001</v>
+    <v>4</v>
+    <v t="r">4</v>
+    <v>21</v>
+    <v>13</v>
+    <v>18</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v>1048570</v>
+    <v t="r">5</v>
+    <v t="r">5</v>
+    <v t="r">5</v>
+    <v t="r">5</v>
+    <v>1048571</v>
+    <v t="r">5</v>
+    <v t="r">5</v>
+    <v t="r">5</v>
+    <v t="r">5</v>
+    <v>1048572</v>
+    <v t="r">5</v>
+    <v t="r">5</v>
+    <v t="r">5</v>
+    <v t="r">5</v>
+    <v>1048573</v>
+    <v t="r">5</v>
+    <v t="r">5</v>
+    <v t="r">5</v>
+    <v t="r">5</v>
+    <v>1048574</v>
+    <v t="r">5</v>
+    <v t="r">5</v>
+    <v t="r">5</v>
+    <v t="r">5</v>
+  </a>
+  <a r="9" c="2">
+    <v t="s"/>
+    <v t="s">DAKAR</v>
+    <v t="s">count</v>
+    <v>365</v>
+    <v t="s">mean</v>
+    <v>22.475890410958907</v>
+    <v t="s">std</v>
+    <v>3.1346906167407527</v>
+    <v t="s">min</v>
+    <v>16</v>
+    <v t="s">25%</v>
+    <v>19.7</v>
+    <v t="s">50%</v>
+    <v>23</v>
+    <v t="s">75%</v>
+    <v>25</v>
+    <v t="s">max</v>
+    <v>27.6</v>
+  </a>
+  <a r="9" c="2">
+    <v t="s"/>
+    <v t="s">MATAM</v>
+    <v t="s">count</v>
+    <v>365</v>
+    <v t="s">mean</v>
+    <v>24.499178082191783</v>
+    <v t="s">std</v>
+    <v>4.2687368983354528</v>
+    <v t="s">min</v>
+    <v>13</v>
+    <v t="s">25%</v>
+    <v>22</v>
+    <v t="s">50%</v>
+    <v>25</v>
+    <v t="s">75%</v>
+    <v>27.8</v>
+    <v t="s">max</v>
+    <v>32</v>
+  </a>
+  <a r="9" c="2">
+    <v t="s"/>
+    <v t="s">ZIGUINCHOR</v>
+    <v t="s">count</v>
+    <v>365</v>
+    <v t="s">mean</v>
+    <v>21.913150684931509</v>
+    <v t="s">std</v>
+    <v>2.7416691378241835</v>
+    <v t="s">min</v>
+    <v>15</v>
+    <v t="s">25%</v>
+    <v>20</v>
+    <v t="s">50%</v>
+    <v>22</v>
+    <v t="s">75%</v>
+    <v>24</v>
+    <v t="s">max</v>
+    <v>27</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="18">
+  <rv s="0">
+    <fb>44927</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44928</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44929</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44930</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44931</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>0</fb>
+    <v>3</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>6</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">          datetime  DAKAR  MATAM  ZIGUINCHOR
+0       2023-01-01   18.0   21.0        20.5
+1       2023-01-02   19.0   17.0        20.5
+2       2023-01-03   20.0   16.0        18.5
+3       2023-01-04   20.0   16.0        16.6
+4       2023-01-05   21.0  ...</v>
+    <v>7</v>
+    <v>4</v>
+  </rv>
+  <rv s="1">
+    <v>1</v>
+  </rv>
+  <rv s="2">
+    <v>Series</v>
+    <v>6</v>
+    <v>9</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'pandas.core.series.Series'&gt;</v>
+    <v>Series</v>
+    <v>count    365.000000
+mean      22.475890
+std        3.134691
+min       16.000000
+25%       19.700000
+50%       23.000000
+75%       25.000000
+max       27.600000
+Name: DAKAR, dtype: float64</v>
+    <v>10</v>
+    <v>4</v>
+  </rv>
+  <rv s="1">
+    <v>2</v>
+  </rv>
+  <rv s="2">
+    <v>Series</v>
+    <v>6</v>
+    <v>12</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'pandas.core.series.Series'&gt;</v>
+    <v>Series</v>
+    <v>count    365.000000
+mean      24.499178
+std        4.268737
+min       13.000000
+25%       22.000000
+50%       25.000000
+75%       27.800000
+max       32.000000
+Name: MATAM, dtype: float64</v>
+    <v>13</v>
+    <v>4</v>
+  </rv>
+  <rv s="1">
+    <v>3</v>
+  </rv>
+  <rv s="2">
+    <v>Series</v>
+    <v>6</v>
+    <v>15</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'pandas.core.series.Series'&gt;</v>
+    <v>Series</v>
+    <v>count    365.000000
+mean      21.913151
+std        2.741669
+min       15.000000
+25%       20.000000
+50%       22.000000
+75%       24.000000
+max       27.000000
+Name: ZIGUINCHOR, dtype: float64</v>
+    <v>16</v>
+    <v>4</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
+  </s>
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="provider" t="spb"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="7">
+    <spb s="0">
+      <v>1048575</v>
+      <v>4</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+    </spb>
+    <spb s="2">
+      <v>2</v>
+    </spb>
+    <spb s="3">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-service/anacondalogo.png</v>
+      <v>Python fourni par Anaconda</v>
+    </spb>
+    <spb s="0">
+      <v>8</v>
+      <v>1</v>
+      <v>Series</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>5</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="_Self" t="i"/>
+  </s>
+  <s>
+    <k n="url" t="s"/>
+    <k n="logoUrl" t="s"/>
+    <k n="description" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="2">
+    <x:dxf>
+      <x:numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="0"/>
+    <rSty dxfid="1">
+      <rpv i="0">0;-0;"nan"</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8157,21 +8668,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:K367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8185,7 +8696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>44927</v>
       </c>
@@ -8199,7 +8710,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44928</v>
       </c>
@@ -8212,8 +8723,12 @@
       <c r="D3">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G3" t="e" cm="1" vm="1">
+        <f t="array" ref="G3">_xlfn._xlws.PY(0,1,Tableau1[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>44929</v>
       </c>
@@ -8227,7 +8742,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>44930</v>
       </c>
@@ -8241,7 +8756,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>44931</v>
       </c>
@@ -8254,8 +8769,20 @@
       <c r="D6">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G6" t="e" cm="1" vm="2">
+        <f t="array" ref="G6">_xlfn._xlws.PY(1,1,G3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I6" t="e" cm="1" vm="3">
+        <f t="array" ref="I6">_xlfn._xlws.PY(2,1,G3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" t="e" cm="1" vm="4">
+        <f t="array" ref="K6">_xlfn._xlws.PY(3,1,G3)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>44932</v>
       </c>
@@ -8269,7 +8796,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>44933</v>
       </c>
@@ -8283,7 +8810,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44934</v>
       </c>
@@ -8297,7 +8824,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>44935</v>
       </c>
@@ -8311,7 +8838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>44936</v>
       </c>
@@ -8325,7 +8852,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44937</v>
       </c>
@@ -8339,7 +8866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>44938</v>
       </c>
@@ -8353,7 +8880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>44939</v>
       </c>
@@ -8367,7 +8894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44940</v>
       </c>
@@ -8381,7 +8908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>44941</v>
       </c>
@@ -13287,6 +13814,12 @@
       </c>
       <c r="B366">
         <v>21.8</v>
+      </c>
+      <c r="C366">
+        <v>16</v>
+      </c>
+      <c r="D366">
+        <v>18</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
